--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2414788.446761548</v>
+        <v>2414061.847890324</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330305</v>
+        <v>5851605.615330297</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124472</v>
+        <v>864456.6793124478</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>397.6505942024507</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -673,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>304.7036060826622</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -746,16 +746,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>31.157937358747</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
         <v>20.54110546596223</v>
@@ -797,13 +797,13 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>51.90127079061641</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>139.2539592609758</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>165.4344123526337</v>
       </c>
       <c r="E5" t="n">
-        <v>407.0074291537983</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -913,10 +913,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1028,7 +1028,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>157.748445174862</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>161.1170542670444</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>102.2350607402988</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>251.6588404174931</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>161.6520855975005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>22.91549716769204</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.2350607402988</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I11" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905467</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>62.7279853554865</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>30.63674015708829</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125509</v>
@@ -1584,13 +1584,13 @@
         <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
         <v>206.4614817925755</v>
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263987</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>39.84559280958344</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>105.3539566626213</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835353</v>
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2013,16 +2013,16 @@
         <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>107.7276828060593</v>
+        <v>48.41918554477007</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
         <v>206.4614817925755</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967466</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.3237676037659</v>
+        <v>22.87550022019926</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>84.08872301692887</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397574</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221264004</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>105.366021479436</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
-        <v>240.0072333494302</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E26" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
-        <v>19.8162350095177</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
@@ -2781,7 +2781,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E29" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="30">
@@ -2958,13 +2958,13 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>21.23399685239789</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>154.7198697565752</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>13.41579045953628</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>198.7442264541998</v>
       </c>
       <c r="X34" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.365682085786471</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>29.57505056623901</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
         <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>206.4614817925754</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
         <v>387.3211661995113</v>
@@ -3520,10 +3520,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
         <v>224.990945096747</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221264004</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
@@ -3681,7 +3681,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>70.89761481375048</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198764</v>
+        <v>209.9669023909109</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
         <v>192.9893998987849</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678445</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798625</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258492</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>119.8051733265741</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609751</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126097</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.922697856183</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.6369638527369</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213907</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>71.27423873582488</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>165.5140974095732</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678445</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798625</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3988,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258492</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985591</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609751</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126097</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4898868230849</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>283.7777510779974</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.6369638527369</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213907</v>
+        <v>334.3658782825033</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>54.9052062158275</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>267.38583728833</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.2473024360883</v>
+        <v>686.6538363395703</v>
       </c>
       <c r="C2" t="n">
-        <v>554.1631157897624</v>
+        <v>680.5696496932444</v>
       </c>
       <c r="D2" t="n">
-        <v>152.4958489186001</v>
+        <v>680.146123826709</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1960374759009</v>
+        <v>669.8463123840097</v>
       </c>
       <c r="F2" t="n">
-        <v>125.2060294699925</v>
+        <v>652.8563043781013</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>345.0748840925839</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030186</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J2" t="n">
         <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>288.3518581880562</v>
+        <v>711.1608938517925</v>
       </c>
       <c r="L2" t="n">
-        <v>288.3518581880562</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="M2" t="n">
-        <v>288.3518581880562</v>
+        <v>1556.778965179265</v>
       </c>
       <c r="N2" t="n">
-        <v>541.5402578923299</v>
+        <v>1556.778965179265</v>
       </c>
       <c r="O2" t="n">
-        <v>964.3492935560654</v>
+        <v>1556.778965179265</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219801</v>
+        <v>1667.762690325531</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015093</v>
+        <v>1667.762690325531</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S2" t="n">
-        <v>1573.038260809194</v>
+        <v>1573.038260809197</v>
       </c>
       <c r="T2" t="n">
-        <v>1350.831776756052</v>
+        <v>1350.831776756055</v>
       </c>
       <c r="U2" t="n">
-        <v>1350.831776756052</v>
+        <v>1093.771285015566</v>
       </c>
       <c r="V2" t="n">
-        <v>1350.831776756052</v>
+        <v>1093.771285015566</v>
       </c>
       <c r="W2" t="n">
-        <v>967.0714758912211</v>
+        <v>1093.771285015566</v>
       </c>
       <c r="X2" t="n">
-        <v>566.4280780601737</v>
+        <v>1093.771285015566</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.4280780601737</v>
+        <v>692.8346119636557</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>642.2500156425524</v>
+        <v>516.9869639122373</v>
       </c>
       <c r="C3" t="n">
-        <v>508.254944391498</v>
+        <v>382.991892661183</v>
       </c>
       <c r="D3" t="n">
-        <v>391.3577866108905</v>
+        <v>266.0947348805755</v>
       </c>
       <c r="E3" t="n">
-        <v>270.8649706032184</v>
+        <v>266.0947348805755</v>
       </c>
       <c r="F3" t="n">
-        <v>161.905090785723</v>
+        <v>157.13485506308</v>
       </c>
       <c r="G3" t="n">
-        <v>54.91497810006169</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006169</v>
+        <v>54.91497810006175</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030186</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J3" t="n">
-        <v>226.9792442829351</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466706</v>
+        <v>649.7882799466713</v>
       </c>
       <c r="L3" t="n">
-        <v>1072.597315610406</v>
+        <v>906.1063163047461</v>
       </c>
       <c r="M3" t="n">
-        <v>1495.406351274141</v>
+        <v>1328.915351968482</v>
       </c>
       <c r="N3" t="n">
-        <v>1708.319336015093</v>
+        <v>1328.915351968482</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.319336015093</v>
+        <v>1328.915351968482</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.319336015093</v>
+        <v>1328.915351968482</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015093</v>
+        <v>1678.759816652466</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129402</v>
+        <v>1600.329326129405</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.98746231641</v>
+        <v>1440.987462316413</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.636651454628</v>
+        <v>1243.636651454631</v>
       </c>
       <c r="V3" t="n">
-        <v>1191.211125403501</v>
+        <v>1029.925124447665</v>
       </c>
       <c r="W3" t="n">
-        <v>977.9779571398296</v>
+        <v>816.691956183994</v>
       </c>
       <c r="X3" t="n">
-        <v>801.6519752787224</v>
+        <v>816.691956183994</v>
       </c>
       <c r="Y3" t="n">
-        <v>642.2500156425524</v>
+        <v>657.289996547824</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1237.821482167173</v>
+        <v>205.2597591585854</v>
       </c>
       <c r="C4" t="n">
-        <v>1097.160917257096</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="D4" t="n">
-        <v>937.6662725800061</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="E4" t="n">
-        <v>776.7554574483255</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="F4" t="n">
-        <v>612.1243315589168</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="G4" t="n">
-        <v>444.8739404844601</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="H4" t="n">
-        <v>295.2664852899168</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="I4" t="n">
-        <v>178.9204393942429</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J4" t="n">
-        <v>193.0029887994534</v>
+        <v>48.24893612551244</v>
       </c>
       <c r="K4" t="n">
-        <v>347.5553165216914</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>607.452416801752</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>896.7164732422452</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1177.555255636496</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1437.11586596297</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1642.791306212582</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1708.319336015093</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1708.319336015093</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1708.319336015093</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1708.319336015093</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="U4" t="n">
-        <v>1425.521188561217</v>
+        <v>1408.994435855785</v>
       </c>
       <c r="V4" t="n">
-        <v>1425.521188561217</v>
+        <v>1135.108690795307</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.521188561217</v>
+        <v>856.0390263041818</v>
       </c>
       <c r="X4" t="n">
-        <v>1425.521188561217</v>
+        <v>617.6951641638651</v>
       </c>
       <c r="Y4" t="n">
-        <v>1425.521188561217</v>
+        <v>392.9594655526298</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>791.9777988942844</v>
+        <v>333.2842014970884</v>
       </c>
       <c r="C5" t="n">
-        <v>785.8936122479586</v>
+        <v>327.2000148507626</v>
       </c>
       <c r="D5" t="n">
-        <v>785.4700863814231</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
-        <v>374.3514710745562</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>357.3614630686478</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1603.135651610684</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1603.135651610684</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>1603.135651610684</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.198978558774</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>675.1644281008383</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008383</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008383</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.9144818452346</v>
+        <v>970.188120799058</v>
       </c>
       <c r="C7" t="n">
-        <v>516.9144818452346</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="D7" t="n">
-        <v>516.9144818452346</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E7" t="n">
-        <v>356.0036667135541</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3725408241454</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>1222.027714870721</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>942.9580503795955</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>704.614188239279</v>
+        <v>1382.623525804338</v>
       </c>
       <c r="Y7" t="n">
-        <v>704.614188239279</v>
+        <v>1157.887827193102</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>733.9275993281359</v>
+        <v>1142.108628778666</v>
       </c>
       <c r="C8" t="n">
-        <v>727.84341268181</v>
+        <v>731.9840380919362</v>
       </c>
       <c r="D8" t="n">
-        <v>727.4198868152746</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E8" t="n">
-        <v>717.1200753725753</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
-        <v>700.1300673666669</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>291.4017832594991</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1530.854701124212</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N8" t="n">
-        <v>2047.697635790537</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>1123.868675817053</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>740.1083749522213</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X8" t="n">
-        <v>740.1083749522213</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y8" t="n">
-        <v>740.1083749522213</v>
+        <v>1552.329808443156</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.8119591581028</v>
+        <v>970.188120799058</v>
       </c>
       <c r="C10" t="n">
-        <v>307.7185867198193</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="D10" t="n">
-        <v>307.7185867198193</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E10" t="n">
-        <v>307.7185867198193</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
         <v>307.7185867198193</v>
@@ -4992,22 +4992,22 @@
         <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.342524902554</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5443774486778</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>689.6586323881997</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>666.5116655521472</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>666.5116655521472</v>
+        <v>1382.623525804338</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.5116655521472</v>
+        <v>1157.887827193102</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5080,13 +5080,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>532.5581915209807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>532.5581915209807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5581915209807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>1406.216283632599</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.81469766952</v>
+        <v>630.1161925628257</v>
       </c>
       <c r="C13" t="n">
-        <v>728.81469766952</v>
+        <v>566.7545911936475</v>
       </c>
       <c r="D13" t="n">
-        <v>599.1169638271149</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="E13" t="n">
-        <v>468.0030595301192</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512421</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="G13" t="n">
         <v>299.6033771114704</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5202,13 +5202,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N13" t="n">
         <v>1237.898275478248</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751518</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="W13" t="n">
-        <v>937.3616489751518</v>
+        <v>996.5659394278172</v>
       </c>
       <c r="X13" t="n">
-        <v>728.81469766952</v>
+        <v>788.0189881221853</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.81469766952</v>
+        <v>788.0189881221853</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>809.8415093489451</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5320,7 +5320,7 @@
         <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
         <v>2721.037282963096</v>
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5581915209807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.216283632599</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>798.0003767906052</v>
+        <v>547.3179767581209</v>
       </c>
       <c r="C16" t="n">
-        <v>656.7039151870065</v>
+        <v>406.0215151545223</v>
       </c>
       <c r="D16" t="n">
-        <v>616.4558416419727</v>
+        <v>406.0215151545223</v>
       </c>
       <c r="E16" t="n">
-        <v>485.3419373449771</v>
+        <v>406.0215151545223</v>
       </c>
       <c r="F16" t="n">
-        <v>350.5077222902531</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="G16" t="n">
-        <v>213.0542420504813</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.203548008749</v>
+        <v>1646.522384595456</v>
       </c>
       <c r="U16" t="n">
-        <v>1644.203548008749</v>
+        <v>1393.521147976265</v>
       </c>
       <c r="V16" t="n">
-        <v>1400.114713782956</v>
+        <v>1149.432313750472</v>
       </c>
       <c r="W16" t="n">
-        <v>1150.841960126515</v>
+        <v>900.159560094031</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.841960126515</v>
+        <v>900.159560094031</v>
       </c>
       <c r="Y16" t="n">
-        <v>955.9031723499647</v>
+        <v>705.2207723174805</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5551,7 +5551,7 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W17" t="n">
         <v>3463.023532176684</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>3264.314802508572</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>4107.291883203138</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>4107.291883203138</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>4107.291883203138</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>4312.340419847156</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.9991721489656</v>
+        <v>752.6158220332528</v>
       </c>
       <c r="C19" t="n">
-        <v>832.7027105453669</v>
+        <v>611.3193604296541</v>
       </c>
       <c r="D19" t="n">
-        <v>703.0049767029618</v>
+        <v>481.6216265872489</v>
       </c>
       <c r="E19" t="n">
-        <v>571.891072405966</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114704</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U19" t="n">
-        <v>1535.387706790508</v>
+        <v>1807.365944557029</v>
       </c>
       <c r="V19" t="n">
-        <v>1535.387706790508</v>
+        <v>1563.277110331236</v>
       </c>
       <c r="W19" t="n">
-        <v>1535.387706790508</v>
+        <v>1314.004356674795</v>
       </c>
       <c r="X19" t="n">
-        <v>1326.840755484876</v>
+        <v>1105.457405369163</v>
       </c>
       <c r="Y19" t="n">
-        <v>1131.901967708325</v>
+        <v>910.5186175926124</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
@@ -5740,10 +5740,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>834.9346609057084</v>
+        <v>626.6383989485759</v>
       </c>
       <c r="C22" t="n">
-        <v>693.6381993021098</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="D22" t="n">
-        <v>563.9404654597047</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="E22" t="n">
-        <v>432.826561162709</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="F22" t="n">
-        <v>297.9923461079852</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="G22" t="n">
-        <v>297.9923461079852</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H22" t="n">
-        <v>178.1818017481267</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1699.679355498665</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T22" t="n">
-        <v>1489.927527310052</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U22" t="n">
-        <v>1236.926290690861</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V22" t="n">
-        <v>992.8374564650679</v>
+        <v>1093.956506260556</v>
       </c>
       <c r="W22" t="n">
-        <v>992.8374564650679</v>
+        <v>844.6837526041155</v>
       </c>
       <c r="X22" t="n">
-        <v>992.8374564650679</v>
+        <v>844.6837526041155</v>
       </c>
       <c r="Y22" t="n">
-        <v>992.8374564650679</v>
+        <v>649.744964827565</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
         <v>1960.285334281245</v>
@@ -5977,10 +5977,10 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6028,7 +6028,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
         <v>3092.17704518032</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>767.6394927281178</v>
+        <v>591.7722620716802</v>
       </c>
       <c r="C25" t="n">
-        <v>626.3430311245191</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="D25" t="n">
-        <v>496.645297282114</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="E25" t="n">
-        <v>365.5313929851184</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="F25" t="n">
-        <v>230.6971779303945</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6147,22 +6147,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6177,22 +6177,22 @@
         <v>1856.27421278407</v>
       </c>
       <c r="T25" t="n">
-        <v>1856.27421278407</v>
+        <v>1646.522384595456</v>
       </c>
       <c r="U25" t="n">
-        <v>1613.842663946262</v>
+        <v>1646.522384595456</v>
       </c>
       <c r="V25" t="n">
-        <v>1369.753829720469</v>
+        <v>1402.433550369663</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.481076064028</v>
+        <v>1153.160796713222</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.481076064028</v>
+        <v>944.6138454075904</v>
       </c>
       <c r="Y25" t="n">
-        <v>925.5422882874774</v>
+        <v>749.6750576310399</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>854.1886277891069</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C28" t="n">
-        <v>712.8921661855082</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>583.1944323431031</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>452.0805280461075</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>317.2463129913835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6387,13 +6387,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N28" t="n">
         <v>1237.898275478248</v>
@@ -6414,22 +6414,22 @@
         <v>1699.679355498665</v>
       </c>
       <c r="T28" t="n">
-        <v>1489.927527310052</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U28" t="n">
-        <v>1469.911128310539</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V28" t="n">
-        <v>1469.911128310539</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.638374654098</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X28" t="n">
-        <v>1012.091423348466</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y28" t="n">
-        <v>1012.091423348466</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
@@ -6451,10 +6451,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6463,10 +6463,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>874.0699105066985</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>632.805277673394</v>
+        <v>767.6394927281183</v>
       </c>
       <c r="C31" t="n">
-        <v>491.5088160697953</v>
+        <v>626.3430311245196</v>
       </c>
       <c r="D31" t="n">
-        <v>361.8110822273902</v>
+        <v>496.6452972821144</v>
       </c>
       <c r="E31" t="n">
-        <v>230.6971779303946</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="F31" t="n">
         <v>230.6971779303946</v>
@@ -6624,13 +6624,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478248</v>
@@ -6651,22 +6651,22 @@
         <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.203548008749</v>
+        <v>1622.75506633966</v>
       </c>
       <c r="U31" t="n">
-        <v>1391.202311389558</v>
+        <v>1369.753829720469</v>
       </c>
       <c r="V31" t="n">
-        <v>1234.919614665745</v>
+        <v>1369.753829720469</v>
       </c>
       <c r="W31" t="n">
-        <v>985.6468610093041</v>
+        <v>1120.481076064028</v>
       </c>
       <c r="X31" t="n">
-        <v>985.6468610093041</v>
+        <v>1120.481076064028</v>
       </c>
       <c r="Y31" t="n">
-        <v>790.7080732327536</v>
+        <v>925.542288287478</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
         <v>1585.618315208991</v>
@@ -6688,10 +6688,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764622</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6727,7 +6727,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T32" t="n">
         <v>4364.291146941468</v>
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.9991721489654</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="C34" t="n">
-        <v>832.7027105453667</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="D34" t="n">
-        <v>703.0049767029616</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E34" t="n">
-        <v>571.8910724059659</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F34" t="n">
-        <v>437.0568573512421</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1856.27421278407</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1603.272976164879</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V34" t="n">
-        <v>1589.721672670398</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W34" t="n">
-        <v>1340.448919013957</v>
+        <v>792.0857125719364</v>
       </c>
       <c r="X34" t="n">
-        <v>1131.901967708325</v>
+        <v>583.5387612663046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1131.901967708325</v>
+        <v>388.5999734897541</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208991</v>
@@ -6925,19 +6925,19 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674168</v>
@@ -6964,7 +6964,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
         <v>4364.291146941468</v>
@@ -6973,7 +6973,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
         <v>3463.023532176683</v>
@@ -6982,7 +6982,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>1266.074801429505</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>478.2340057391255</v>
+        <v>728.8146976695207</v>
       </c>
       <c r="C37" t="n">
-        <v>478.2340057391255</v>
+        <v>587.5182360659221</v>
       </c>
       <c r="D37" t="n">
-        <v>478.2340057391255</v>
+        <v>457.820502223517</v>
       </c>
       <c r="E37" t="n">
-        <v>347.1201014421299</v>
+        <v>326.7065979265213</v>
       </c>
       <c r="F37" t="n">
-        <v>347.1201014421299</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="G37" t="n">
-        <v>209.6666212023582</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7101,10 +7101,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N37" t="n">
         <v>1237.898275478249</v>
@@ -7122,25 +7122,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T37" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U37" t="n">
-        <v>1338.045340486351</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V37" t="n">
-        <v>1093.956506260557</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W37" t="n">
-        <v>844.6837526041168</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="X37" t="n">
-        <v>636.136801298485</v>
+        <v>728.8146976695207</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.136801298485</v>
+        <v>728.8146976695207</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C38" t="n">
         <v>1960.285334281245</v>
@@ -7165,7 +7165,7 @@
         <v>809.8415093489448</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7174,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7189,7 +7189,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
         <v>4300.467232046283</v>
@@ -7201,19 +7201,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
         <v>3092.17704518032</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>3276.783860599928</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>4119.760941294495</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>4119.760941294495</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>4632.62536516851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>4632.62536516851</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>973.9991721489654</v>
+        <v>626.6383989485755</v>
       </c>
       <c r="C40" t="n">
-        <v>832.7027105453667</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="D40" t="n">
-        <v>703.0049767029616</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="E40" t="n">
-        <v>571.8910724059659</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="F40" t="n">
-        <v>437.0568573512421</v>
+        <v>350.507722290253</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S40" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T40" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U40" t="n">
-        <v>1784.660460446948</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="V40" t="n">
-        <v>1784.660460446948</v>
+        <v>1400.114713782956</v>
       </c>
       <c r="W40" t="n">
-        <v>1535.387706790507</v>
+        <v>1188.026933590117</v>
       </c>
       <c r="X40" t="n">
-        <v>1326.840755484875</v>
+        <v>979.4799822844855</v>
       </c>
       <c r="Y40" t="n">
-        <v>1131.901967708325</v>
+        <v>784.5411945079351</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2359.298219196301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.173628509572</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1544.709698602632</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E41" t="n">
-        <v>1130.369483119529</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F41" t="n">
-        <v>709.3390710732165</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>300.6107869660487</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735496</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3170.456071912701</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2769.519398860791</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
         <v>2110.173374178493</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1182.57754799176</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1465.375695445635</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1465.375695445635</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>1182.57754799176</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V43" t="n">
-        <v>1182.57754799176</v>
+        <v>944.2434118641181</v>
       </c>
       <c r="W43" t="n">
-        <v>1182.57754799176</v>
+        <v>665.1737473729925</v>
       </c>
       <c r="X43" t="n">
-        <v>1182.57754799176</v>
+        <v>665.1737473729925</v>
       </c>
       <c r="Y43" t="n">
-        <v>1182.57754799176</v>
+        <v>440.4380487617572</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976084</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
         <v>2139.066799289355</v>
@@ -7636,13 +7636,13 @@
         <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529993</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458315</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735496</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7684,13 +7684,13 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523531</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y44" t="n">
         <v>2959.412569640574</v>
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>536.3347793378432</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>536.3347793378432</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7839,19 +7839,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1100.295707834299</v>
+        <v>1327.634051029763</v>
       </c>
       <c r="V46" t="n">
-        <v>826.4099627738212</v>
+        <v>1053.748305969285</v>
       </c>
       <c r="W46" t="n">
-        <v>556.3232584421747</v>
+        <v>774.6786414781598</v>
       </c>
       <c r="X46" t="n">
-        <v>317.9793963018581</v>
+        <v>536.3347793378432</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.2436976906228</v>
+        <v>536.3347793378432</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>516.216223676991</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666188</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.3700584608195</v>
       </c>
       <c r="N2" t="n">
-        <v>348.6581490437645</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295564</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846574</v>
+        <v>205.7541361559002</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883886</v>
+        <v>482.9056167883894</v>
       </c>
       <c r="L3" t="n">
-        <v>483.1943578146223</v>
+        <v>315.0216312432478</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421906</v>
+        <v>484.6441177421914</v>
       </c>
       <c r="N3" t="n">
-        <v>268.2570143442061</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8078,10 +8078,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>553.2940084590249</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8297,13 +8297,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>500.8626362276487</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>395.5690244730516</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8312,10 +8312,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>292.3871721926164</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>395.5690244730516</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>499.5777967546739</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -8780,16 +8780,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8944,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>501.3162977084759</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9178,10 +9178,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9248,10 +9248,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9260,13 +9260,13 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>261.3793689866603</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9418,7 +9418,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1409094511112</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>527.9363279870926</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>574.4763360814417</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>575.7963516000154</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11077,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>361.079260496652</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11311,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>285.4811293141939</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>77.15551163207621</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
-        <v>102.8491327470884</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>88.55516369439768</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>28.1319162415554</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
         <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
-        <v>142.7435414469398</v>
+        <v>202.0520387082291</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.4482673835668</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.594920693450206</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>34.51747550812674</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10.46399090356883</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>51.84035121586605</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>230.6549892434814</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>186.4203130543291</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>86.92807612696004</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>228.232155423999</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>48.03579966567659</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>124.1201908183902</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>89.03738835002085</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>179.5736094392486</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>36.81312372896542</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>25.66401796922128</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>187.994239071985</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4898868230849</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>113.253611703064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>105.6327902003</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>96.14494677818561</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>62.56142803888747</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>225.0649597635096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>8.893130557884319</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>605590.024964967</v>
+        <v>605590.0249649672</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638721.1121599922</v>
+        <v>638721.1121599921</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638721.1121599922</v>
+        <v>638721.1121599921</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638721.1121599922</v>
+        <v>638721.1121599923</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>638721.1121599923</v>
+        <v>638721.1121599921</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>638721.1121599922</v>
+        <v>638721.1121599923</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638721.1121599923</v>
+        <v>638721.1121599922</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>638721.1121599922</v>
+        <v>638721.1121599923</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595738.2678882594</v>
+        <v>595738.2678882591</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>602664.8542200902</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="C2" t="n">
-        <v>602664.8542200908</v>
+        <v>602664.8542200906</v>
       </c>
       <c r="D2" t="n">
-        <v>602664.8542200906</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="E2" t="n">
         <v>584042.9209415639</v>
       </c>
       <c r="F2" t="n">
-        <v>584042.9209415639</v>
+        <v>584042.9209415637</v>
       </c>
       <c r="G2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="H2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="I2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="J2" t="n">
         <v>584042.9209415641</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>584042.9209415638</v>
       </c>
-      <c r="I2" t="n">
-        <v>584042.9209415638</v>
-      </c>
-      <c r="J2" t="n">
-        <v>584042.9209415638</v>
-      </c>
-      <c r="K2" t="n">
-        <v>584042.920941564</v>
-      </c>
       <c r="L2" t="n">
-        <v>584042.9209415639</v>
+        <v>584042.9209415641</v>
       </c>
       <c r="M2" t="n">
         <v>584042.920941564</v>
@@ -26352,10 +26352,10 @@
         <v>584042.9209415639</v>
       </c>
       <c r="O2" t="n">
-        <v>535850.0349399232</v>
+        <v>535850.0349399234</v>
       </c>
       <c r="P2" t="n">
-        <v>535850.0349399233</v>
+        <v>535850.0349399234</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108465</v>
+        <v>143124.2752108467</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668829</v>
+        <v>30686.46086668805</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>215728.9162805135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691536</v>
+        <v>135342.0294691538</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110963</v>
+        <v>24445.77426110944</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="M3" t="n">
         <v>160358.4505006828</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248795.5093150309</v>
+        <v>248795.5093150308</v>
       </c>
       <c r="C4" t="n">
         <v>232373.271303389</v>
@@ -26435,7 +26435,7 @@
         <v>148366.1238023682</v>
       </c>
       <c r="H4" t="n">
-        <v>148366.1238023683</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="I4" t="n">
         <v>148366.1238023682</v>
@@ -26459,7 +26459,7 @@
         <v>118556.0943854993</v>
       </c>
       <c r="P4" t="n">
-        <v>118556.0943854994</v>
+        <v>118556.0943854993</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742941</v>
+        <v>59594.05390742945</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26487,10 +26487,10 @@
         <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26505,7 +26505,7 @@
         <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151151.0157867834</v>
+        <v>151151.0157867837</v>
       </c>
       <c r="C6" t="n">
         <v>274236.0569715159</v>
       </c>
       <c r="D6" t="n">
-        <v>304922.5178382039</v>
+        <v>304922.517838204</v>
       </c>
       <c r="E6" t="n">
-        <v>146602.7240818173</v>
+        <v>146552.394532416</v>
       </c>
       <c r="F6" t="n">
-        <v>362331.6403623309</v>
+        <v>362281.3108129292</v>
       </c>
       <c r="G6" t="n">
-        <v>362331.6403623311</v>
+        <v>362281.3108129296</v>
       </c>
       <c r="H6" t="n">
-        <v>362331.6403623307</v>
+        <v>362281.3108129296</v>
       </c>
       <c r="I6" t="n">
-        <v>362331.6403623308</v>
+        <v>362281.3108129296</v>
       </c>
       <c r="J6" t="n">
-        <v>226989.6108931771</v>
+        <v>226939.2813437759</v>
       </c>
       <c r="K6" t="n">
-        <v>337885.8661012213</v>
+        <v>337835.5365518199</v>
       </c>
       <c r="L6" t="n">
-        <v>362331.6403623308</v>
+        <v>362281.3108129296</v>
       </c>
       <c r="M6" t="n">
-        <v>201973.1898616481</v>
+        <v>201922.8603122468</v>
       </c>
       <c r="N6" t="n">
-        <v>362331.6403623309</v>
+        <v>362281.3108129295</v>
       </c>
       <c r="O6" t="n">
-        <v>346428.7303095505</v>
+        <v>346248.1497169018</v>
       </c>
       <c r="P6" t="n">
-        <v>346428.7303095507</v>
+        <v>346248.1497169017</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H2" t="n">
+        <v>29.49894172633794</v>
+      </c>
+      <c r="I2" t="n">
+        <v>29.49894172633794</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29.49894172633793</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29.49894172633793</v>
+      </c>
+      <c r="L2" t="n">
+        <v>29.498941726338</v>
+      </c>
+      <c r="M2" t="n">
         <v>29.49894172633803</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>29.49894172633803</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.498941726338</v>
-      </c>
-      <c r="K2" t="n">
-        <v>29.498941726338</v>
-      </c>
-      <c r="L2" t="n">
-        <v>29.49894172633799</v>
-      </c>
-      <c r="M2" t="n">
-        <v>29.49894172633805</v>
-      </c>
-      <c r="N2" t="n">
-        <v>29.49894172633799</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037732</v>
+        <v>427.079834003774</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037732</v>
+        <v>427.079834003774</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625233</v>
+        <v>94.98373636625159</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037732</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625233</v>
+        <v>94.98373636625159</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037732</v>
+        <v>427.079834003774</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625233</v>
+        <v>94.98373636625159</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>2.768696405419348</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>99.93739518343392</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,16 +27466,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74.76227420005767</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>159.6731409462801</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.12847945292486</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>234.9848782552363</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.189384174473958</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27833,16 +27833,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>110.0298333428288</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.7253627786146</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>148.7604501903769</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>146.1473268010587</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>253.3634706785223</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>133.7253627786146</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633702</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633836</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633873</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633657</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633657</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="41">
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>427.079834003774</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.079834003774</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.079834003774</v>
       </c>
       <c r="N2" t="n">
-        <v>255.7458582871452</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037732</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037732</v>
+        <v>112.1047728750161</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037732</v>
+        <v>427.079834003774</v>
       </c>
       <c r="L3" t="n">
-        <v>427.0798340037732</v>
+        <v>258.9071074323988</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037732</v>
+        <v>427.079834003774</v>
       </c>
       <c r="N3" t="n">
-        <v>215.0636209504561</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>460.0037840019794</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35017,13 +35017,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.0368534430334</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>443.7520139700585</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M13" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35664,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>443.7520139700585</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P17" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35968,10 +35968,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>207.1197339838565</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36138,7 +36138,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>474.7429345933426</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533846</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M28" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533846</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M31" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>516.9120523430242</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K37" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
@@ -37484,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>518.0448726000154</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>29.85810036629282</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37709,19 +37709,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>303.327781496652</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
